--- a/Users.xlsx
+++ b/Users.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0, 24300</t>
         </is>
       </c>
     </row>
